--- a/prefix_records.xlsx
+++ b/prefix_records.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
   <si>
     <t>Search Prefix</t>
   </si>
@@ -23,241 +23,259 @@
     <t>Prefix Of</t>
   </si>
   <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>D/O,W/O,M/O</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>D/O</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>S/O,H/O,F/O,D/O,W/O,M/O</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Baby girl of</t>
+  </si>
+  <si>
+    <t>Infant</t>
+  </si>
+  <si>
+    <t>S/O,D/O</t>
+  </si>
+  <si>
+    <t>Stillborn baby of</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Mx.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>C/O</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Rev.</t>
+  </si>
+  <si>
+    <t>Rev. Dr.</t>
+  </si>
+  <si>
+    <t>Rev. Fr.</t>
+  </si>
+  <si>
+    <t>Rev. Sr.</t>
+  </si>
+  <si>
+    <t>Swami</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Col.</t>
+  </si>
+  <si>
+    <t>Maj.</t>
+  </si>
+  <si>
+    <t>Capt.</t>
+  </si>
+  <si>
+    <t>Lt.</t>
+  </si>
+  <si>
+    <t>Sgt.</t>
+  </si>
+  <si>
+    <t>Hon.</t>
+  </si>
+  <si>
+    <t>Rt. Hon.</t>
+  </si>
+  <si>
+    <t>His Excellency</t>
+  </si>
+  <si>
+    <t>Her Excellency</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Vice Chancellor</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Emeritus Prof.</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Judge</t>
+  </si>
+  <si>
+    <t>Barrister</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Surgeon</t>
+  </si>
+  <si>
+    <t>Physician</t>
+  </si>
+  <si>
+    <t>Herr</t>
+  </si>
+  <si>
+    <t>Frau</t>
+  </si>
+  <si>
+    <t>D/O,W/O</t>
+  </si>
+  <si>
+    <t>Fraulein</t>
+  </si>
+  <si>
+    <t>Monsieur</t>
+  </si>
+  <si>
+    <t>Madame</t>
+  </si>
+  <si>
+    <t>Mademoiselle</t>
+  </si>
+  <si>
+    <t>Senor</t>
+  </si>
+  <si>
+    <t>Senora</t>
+  </si>
+  <si>
+    <t>Senorita</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>s/o</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>h/o</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>S/O,H/O</t>
+  </si>
+  <si>
+    <t>Reverend</t>
+  </si>
+  <si>
+    <t>Elder</t>
+  </si>
+  <si>
+    <t>Chief</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>D/O,S/O</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
     <t>arc</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>s/o</t>
-  </si>
-  <si>
-    <t>Baby girl of</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>D/O</t>
-  </si>
-  <si>
-    <t>Barrister</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>S/O,H/O,F/O,D/O,W/O,M/O</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>S/O</t>
-  </si>
-  <si>
-    <t>Capt.</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>S/O,D/O</t>
-  </si>
-  <si>
-    <t>Col.</t>
-  </si>
-  <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Emeritus Prof.</t>
-  </si>
-  <si>
-    <t>Frau</t>
-  </si>
-  <si>
-    <t>D/O,W/O</t>
-  </si>
-  <si>
-    <t>Fraulein</t>
-  </si>
-  <si>
-    <t>her</t>
-  </si>
-  <si>
-    <t>Her Excellency</t>
-  </si>
-  <si>
-    <t>Herr</t>
-  </si>
-  <si>
-    <t>His Excellency</t>
-  </si>
-  <si>
-    <t>Hon.</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>C/O</t>
-  </si>
-  <si>
-    <t>Infant</t>
-  </si>
-  <si>
-    <t>Judge</t>
-  </si>
-  <si>
-    <t>Justice</t>
-  </si>
-  <si>
-    <t>Juvenile</t>
-  </si>
-  <si>
-    <t>Lt.</t>
-  </si>
-  <si>
-    <t>Madame</t>
-  </si>
-  <si>
-    <t>Mademoiselle</t>
-  </si>
-  <si>
-    <t>Maj.</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>Monsieur</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>S/O,H/O,F/O</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>D/O,W/O,M/O</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>h/o</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
-    <t>Mx.</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Neonate</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Physician</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Prof.</t>
-  </si>
-  <si>
-    <t>Prof. Dr.</t>
-  </si>
-  <si>
-    <t>Rev.</t>
-  </si>
-  <si>
-    <t>Rev. Dr.</t>
-  </si>
-  <si>
-    <t>Rev. Fr.</t>
-  </si>
-  <si>
-    <t>Rev. Sr.</t>
-  </si>
-  <si>
-    <t>Rt. Hon.</t>
-  </si>
-  <si>
-    <t>Senor</t>
-  </si>
-  <si>
-    <t>Senora</t>
-  </si>
-  <si>
-    <t>Senorita</t>
-  </si>
-  <si>
-    <t>Sgt.</t>
-  </si>
-  <si>
-    <t>sis</t>
-  </si>
-  <si>
-    <t>f/o</t>
-  </si>
-  <si>
-    <t>Sister</t>
-  </si>
-  <si>
-    <t>Specialist</t>
-  </si>
-  <si>
-    <t>Stillborn baby of</t>
-  </si>
-  <si>
-    <t>Surgeon</t>
-  </si>
-  <si>
-    <t>Swami</t>
-  </si>
-  <si>
-    <t>Vice Chancellor</t>
   </si>
 </sst>
 </file>
@@ -337,14 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.5546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="30.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -375,43 +393,43 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -419,10 +437,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -430,32 +448,32 @@
         <v>16</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -463,10 +481,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -474,10 +492,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -485,10 +503,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -496,10 +514,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -507,10 +525,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -518,76 +536,76 @@
         <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>10</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -595,10 +613,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -617,10 +635,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -628,10 +646,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -639,10 +657,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -650,10 +668,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -661,10 +679,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -672,10 +690,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -683,10 +701,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -694,10 +712,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -705,10 +723,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -716,10 +734,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -727,10 +745,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -738,10 +756,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -749,10 +767,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -760,125 +778,125 @@
         <v>49</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>10</v>
@@ -889,167 +907,167 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>10</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>10</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>10</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -1057,10 +1075,65 @@
         <v>81</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
